--- a/csv/mortgagestrategy.xlsx
+++ b/csv/mortgagestrategy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,6 +829,798 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/gatehouse-bank-reduces-hpp-rates/")</f>
+        <v/>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gatehouse Bank reduces HPP rates</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/together-lifts-securitisation-package-to-725m/")</f>
+        <v/>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Together lifts securitisation package to £725m</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/five-year-average-rate-falls-to-5-07-ahead-of-boe-rate-decision-rightmove/")</f>
+        <v/>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Five-year average rate falls to 5.07% ahead of BoE rate decision: Rightmove</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/landbay-cuts-small-hmo-mufb-rates-by-up-to-15bps-adds-new-deals/")</f>
+        <v/>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Landbay cuts small HMO/MUFB rates by up to 15bps, adds new deals</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/hinkley-rugby-partners-with-retrofit-specialist/")</f>
+        <v/>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hinkley &amp; Rugby partners with retrofit specialist</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/livemore-launches-500-cashback-range-for-over-50s/")</f>
+        <v/>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LiveMore intros £500 cashback range for over-50s</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/falling-swap-rates-point-to-lower-mortgage-rates-in-2024/")</f>
+        <v/>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Falling swap rates point to lower mortgage rates in 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/mpowered-cuts-rates-by-up-to-30bps-5-year-deals-start-at-4-84/")</f>
+        <v/>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MPowered cuts rates by up to 30bps, 5-year deals start at 4.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/significant-price-drop-for-high-end-flats-investec/")</f>
+        <v/>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Significant price drop for high-end flats: Investec</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/construction-work-fell-0-5-in-october-ons/")</f>
+        <v/>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Construction work fell 0.5% in October: ONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/rent-pace-set-to-cool-by-almost-half-in-2024-zoopla/")</f>
+        <v/>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rent pace set to cool by almost half in 2024: Zoopla</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/stonebridge-appoints-scrivens-as-head-of-sales/")</f>
+        <v/>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Stonebridge appoints Scrivens as head of sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/family-bs-reduces-resi-landlord-rates-by-up-to-55bps/")</f>
+        <v/>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Family BS reduces resi, landlord rates by up to 55bps</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/metro-bank-criteria-changes-streamline-worker-documents/")</f>
+        <v/>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Metro Bank criteria changes streamline worker documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/atom-reduces-rates-on-its-prime-range/")</f>
+        <v/>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Atom reduces rates on its Prime range</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/lender-mortgage-commitments-slump-16-5-in-q3-boe/")</f>
+        <v/>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Lender mortgage commitments slump 16.5% in Q3: BoE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/css-partners-with-mortgage-intelligence-on-referral-arrangement/")</f>
+        <v/>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CSS partners with Mortgage Intelligence on referral arrangement</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/gen-h-intros-sub-5-rates-in-price-cut-round/")</f>
+        <v/>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Gen H intros sub-5% rates in price cut round</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/foundation-reprices-products-across-btl-range/")</f>
+        <v/>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Foundation reprices products across BTL range</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/rents-jump-10-to-top-85bn-in-2023-hamptons/")</f>
+        <v/>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rents jump 10% to top £85bn in 2023: Hamptons</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/virgin-money-lifts-maximum-resi-loan-term-to-40-years/")</f>
+        <v/>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Virgin Money lifts maximum resi loan term to 40 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/nationwide-cuts-minimum-visa-validity-to-one-year-for-resi-loans/")</f>
+        <v/>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nationwide cuts minimum visa validity to one year for resi loans</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/increased-broker-confidence-for-2024-crystal-survey-reveals/")</f>
+        <v/>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Increased broker confidence for 2024: Crystal survey reveals</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/tipton-coseley-ceo-newton-steps-down-after-decade-in-role/")</f>
+        <v/>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Tipton &amp; Coseley CEO Newton steps down after decade in role</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/skipton-building-society-will-write-95-ltv-loans-for-new-build-flats/")</f>
+        <v/>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Skipton BS will write 95% LTV loans for new build flats, cuts rates</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/mortgage-lending-to-fall-5-in-2024-uk-finance/")</f>
+        <v/>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mortgage lending to fall 5% in 2024: UK Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/pure-retirement-offers-higher-ltvs-on-heritage-range/")</f>
+        <v/>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pure Retirement offers higher LTVs on heritage range</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/fixed-rates-hit-lowest-levels-in-six-months-moneyfacts/")</f>
+        <v/>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Fixed rates hit lowest levels in six months: Moneyfacts</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/landlords-with-10-plus-properties-aim-to-increase-portfolio/")</f>
+        <v/>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Landlords with 10-plus properties aim to increase portfolio</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/landbay-makes-further-cuts-to-five-year-product-range/")</f>
+        <v/>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Landbay makes further cuts to five-year product range</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/asking-prices-fall-by-7000-in-december-rightmove/")</f>
+        <v/>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Asking prices fall by £7,000 in December: Rightmove</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/berkeley-group-reports-profit-amid-difficult-environment/")</f>
+        <v/>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Berkeley Group reports profit amid difficult environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/fca-and-treasury-seek-views-on-broker-advice-gap/")</f>
+        <v/>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FCA and Treasury set out proposals to bridge broker ‘advice gap’</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/average-2-year-fixes-dip-below-6-for-first-time-since-june-moneyfacts/")</f>
+        <v/>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Average 2-year fixes dip below 6% for first time since June: Moneyfacts</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/santander-cuts-resi-landlord-rates-by-up-to-32bps/")</f>
+        <v/>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Santander cuts resi, landlord rates by up to 32bps</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/loughborough-promotes-pearson-to-head-of-intermediaries/")</f>
+        <v/>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Loughborough promotes Pearson to head of Intermediaries</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/gatehouse-bank-reduces-hpp-rates/")</f>
+        <v/>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Gatehouse Bank reduces HPP rates</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/together-lifts-securitisation-package-to-725m/")</f>
+        <v/>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Together lifts securitisation package to £725m</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/five-year-average-rate-falls-to-5-07-ahead-of-boe-rate-decision-rightmove/")</f>
+        <v/>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Five-year average rate falls to 5.07% ahead of BoE rate decision: Rightmove</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/landbay-cuts-small-hmo-mufb-rates-by-up-to-15bps-adds-new-deals/")</f>
+        <v/>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Landbay cuts small HMO/MUFB rates by up to 15bps, adds new deals</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/hinkley-rugby-partners-with-retrofit-specialist/")</f>
+        <v/>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Hinkley &amp; Rugby partners with retrofit specialist</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/livemore-launches-500-cashback-range-for-over-50s/")</f>
+        <v/>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>LiveMore intros £500 cashback range for over-50s</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/falling-swap-rates-point-to-lower-mortgage-rates-in-2024/")</f>
+        <v/>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Falling swap rates point to lower mortgage rates in 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/mpowered-cuts-rates-by-up-to-30bps-5-year-deals-start-at-4-84/")</f>
+        <v/>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MPowered cuts rates by up to 30bps, 5-year deals start at 4.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/significant-price-drop-for-high-end-flats-investec/")</f>
+        <v/>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Significant price drop for high-end flats: Investec</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/construction-work-fell-0-5-in-october-ons/")</f>
+        <v/>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Construction work fell 0.5% in October: ONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/rent-pace-set-to-cool-by-almost-half-in-2024-zoopla/")</f>
+        <v/>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Rent pace set to cool by almost half in 2024: Zoopla</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/stonebridge-appoints-scrivens-as-head-of-sales/")</f>
+        <v/>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Stonebridge appoints Scrivens as head of sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/family-bs-reduces-resi-landlord-rates-by-up-to-55bps/")</f>
+        <v/>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Family BS reduces resi, landlord rates by up to 55bps</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/metro-bank-criteria-changes-streamline-worker-documents/")</f>
+        <v/>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Metro Bank criteria changes streamline worker documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/atom-reduces-rates-on-its-prime-range/")</f>
+        <v/>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Atom reduces rates on its Prime range</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/lender-mortgage-commitments-slump-16-5-in-q3-boe/")</f>
+        <v/>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Lender mortgage commitments slump 16.5% in Q3: BoE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/css-partners-with-mortgage-intelligence-on-referral-arrangement/")</f>
+        <v/>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CSS partners with Mortgage Intelligence on referral arrangement</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/gen-h-intros-sub-5-rates-in-price-cut-round/")</f>
+        <v/>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Gen H intros sub-5% rates in price cut round</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/foundation-reprices-products-across-btl-range/")</f>
+        <v/>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Foundation reprices products across BTL range</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/rents-jump-10-to-top-85bn-in-2023-hamptons/")</f>
+        <v/>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Rents jump 10% to top £85bn in 2023: Hamptons</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/virgin-money-lifts-maximum-resi-loan-term-to-40-years/")</f>
+        <v/>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Virgin Money lifts maximum resi loan term to 40 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/nationwide-cuts-minimum-visa-validity-to-one-year-for-resi-loans/")</f>
+        <v/>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Nationwide cuts minimum visa validity to one year for resi loans</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/increased-broker-confidence-for-2024-crystal-survey-reveals/")</f>
+        <v/>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Increased broker confidence for 2024: Crystal survey reveals</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/tipton-coseley-ceo-newton-steps-down-after-decade-in-role/")</f>
+        <v/>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Tipton &amp; Coseley CEO Newton steps down after decade in role</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/skipton-building-society-will-write-95-ltv-loans-for-new-build-flats/")</f>
+        <v/>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Skipton BS will write 95% LTV loans for new build flats, cuts rates</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/mortgage-lending-to-fall-5-in-2024-uk-finance/")</f>
+        <v/>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mortgage lending to fall 5% in 2024: UK Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/pure-retirement-offers-higher-ltvs-on-heritage-range/")</f>
+        <v/>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Pure Retirement offers higher LTVs on heritage range</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/fixed-rates-hit-lowest-levels-in-six-months-moneyfacts/")</f>
+        <v/>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Fixed rates hit lowest levels in six months: Moneyfacts</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/landlords-with-10-plus-properties-aim-to-increase-portfolio/")</f>
+        <v/>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Landlords with 10-plus properties aim to increase portfolio</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/landbay-makes-further-cuts-to-five-year-product-range/")</f>
+        <v/>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Landbay makes further cuts to five-year product range</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/asking-prices-fall-by-7000-in-december-rightmove/")</f>
+        <v/>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Asking prices fall by £7,000 in December: Rightmove</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/berkeley-group-reports-profit-amid-difficult-environment/")</f>
+        <v/>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Berkeley Group reports profit amid difficult environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/fca-and-treasury-seek-views-on-broker-advice-gap/")</f>
+        <v/>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FCA and Treasury set out proposals to bridge broker ‘advice gap’</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/average-2-year-fixes-dip-below-6-for-first-time-since-june-moneyfacts/")</f>
+        <v/>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Average 2-year fixes dip below 6% for first time since June: Moneyfacts</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/santander-cuts-resi-landlord-rates-by-up-to-32bps/")</f>
+        <v/>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Santander cuts resi, landlord rates by up to 32bps</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <f>HYPERLINK("https://www.mortgagestrategy.co.uk/news/loughborough-promotes-pearson-to-head-of-intermediaries/")</f>
+        <v/>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Loughborough promotes Pearson to head of Intermediaries</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
